--- a/U8_28prop_36V.xlsx
+++ b/U8_28prop_36V.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usr\okita\Arduino\2020\fixed_pitch_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCBC17-7ACA-4F81-8EE8-78E100921A23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F8FE9-7A76-4030-A764-78E8F146E1EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8333036-CB4E-444F-A701-20D823CDBFE9}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="5985" windowHeight="9930" xr2:uid="{B8333036-CB4E-444F-A701-20D823CDBFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
